--- a/ig/ft-3-add-narative/StructureDefinition-cds-bundle-transaction-maj.xlsx
+++ b/ig/ft-3-add-narative/StructureDefinition-cds-bundle-transaction-maj.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-21T15:02:29+00:00</t>
+    <t>2024-02-21T15:17:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ft-3-add-narative/StructureDefinition-cds-bundle-transaction-maj.xlsx
+++ b/ig/ft-3-add-narative/StructureDefinition-cds-bundle-transaction-maj.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-21T15:17:25+00:00</t>
+    <t>2024-02-21T15:17:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ft-3-add-narative/StructureDefinition-cds-bundle-transaction-maj.xlsx
+++ b/ig/ft-3-add-narative/StructureDefinition-cds-bundle-transaction-maj.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-21T15:17:56+00:00</t>
+    <t>2024-02-21T15:23:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ft-3-add-narative/StructureDefinition-cds-bundle-transaction-maj.xlsx
+++ b/ig/ft-3-add-narative/StructureDefinition-cds-bundle-transaction-maj.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-21T15:23:52+00:00</t>
+    <t>2024-02-21T15:34:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ft-3-add-narative/StructureDefinition-cds-bundle-transaction-maj.xlsx
+++ b/ig/ft-3-add-narative/StructureDefinition-cds-bundle-transaction-maj.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9826" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8679" uniqueCount="507">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-21T15:34:54+00:00</t>
+    <t>2024-03-18T15:36:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -913,10 +913,6 @@
     <t>The Care Team includes all the people and organizations who plan to participate in the coordination and delivery of care for a patient.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
-  </si>
-  <si>
     <t>Bundle.entry:careTeam.search</t>
   </si>
   <si>
@@ -951,7 +947,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-req-met:null {value='POST' or value='PUT'}</t>
+req-met:Invariant décrivant la méthode de requête des bundles de type transaction : POST s'il s’agit d’un nouvel élément ou PUT s'il s’agit d’un élément qui existe déjà. {value='POST' or value='PUT'}</t>
   </si>
   <si>
     <t>Bundle.entry:careTeam.request.url</t>
@@ -1261,10 +1257,6 @@
     <t>A formally or informally recognized grouping of people or organizations formed for the purpose of achieving some form of collective action.  Includes companies, institutions, corporations, departments, community groups, healthcare practice groups, payer/insurer, etc.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
-  </si>
-  <si>
     <t>(also see master files messages)</t>
   </si>
   <si>
@@ -1344,109 +1336,6 @@
   </si>
   <si>
     <t>Bundle.entry:organization.response.outcome</t>
-  </si>
-  <si>
-    <t>Bundle.entry:organizationInterne</t>
-  </si>
-  <si>
-    <t>organizationInterne</t>
-  </si>
-  <si>
-    <t>Bundle.entry:organizationInterne.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:organizationInterne.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:organizationInterne.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:organizationInterne.link</t>
-  </si>
-  <si>
-    <t>Bundle.entry:organizationInterne.fullUrl</t>
-  </si>
-  <si>
-    <t>Bundle.entry:organizationInterne.resource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Organization {http://interop.esante.gouv.fr/ig/fhir/cds/StructureDefinition/cds-organization-interne}
-</t>
-  </si>
-  <si>
-    <t>Bundle.entry:organizationInterne.search</t>
-  </si>
-  <si>
-    <t>Bundle.entry:organizationInterne.search.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:organizationInterne.search.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:organizationInterne.search.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:organizationInterne.search.mode</t>
-  </si>
-  <si>
-    <t>Bundle.entry:organizationInterne.search.score</t>
-  </si>
-  <si>
-    <t>Bundle.entry:organizationInterne.request</t>
-  </si>
-  <si>
-    <t>Bundle.entry:organizationInterne.request.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:organizationInterne.request.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:organizationInterne.request.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:organizationInterne.request.method</t>
-  </si>
-  <si>
-    <t>Bundle.entry:organizationInterne.request.url</t>
-  </si>
-  <si>
-    <t>Bundle.entry:organizationInterne.request.ifNoneMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:organizationInterne.request.ifModifiedSince</t>
-  </si>
-  <si>
-    <t>Bundle.entry:organizationInterne.request.ifMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:organizationInterne.request.ifNoneExist</t>
-  </si>
-  <si>
-    <t>Bundle.entry:organizationInterne.response</t>
-  </si>
-  <si>
-    <t>Bundle.entry:organizationInterne.response.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:organizationInterne.response.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:organizationInterne.response.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:organizationInterne.response.status</t>
-  </si>
-  <si>
-    <t>Bundle.entry:organizationInterne.response.location</t>
-  </si>
-  <si>
-    <t>Bundle.entry:organizationInterne.response.etag</t>
-  </si>
-  <si>
-    <t>Bundle.entry:organizationInterne.response.lastModified</t>
-  </si>
-  <si>
-    <t>Bundle.entry:organizationInterne.response.outcome</t>
   </si>
   <si>
     <t>Bundle.entry:practitionerRoleOrg</t>
@@ -2000,7 +1889,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN273"/>
+  <dimension ref="A1:AN241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -8291,7 +8180,7 @@
         <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>285</v>
+        <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>77</v>
@@ -8308,7 +8197,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>203</v>
@@ -8420,7 +8309,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>207</v>
@@ -8532,7 +8421,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>208</v>
@@ -8646,7 +8535,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>209</v>
@@ -8762,7 +8651,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>210</v>
@@ -8876,7 +8765,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>216</v>
@@ -8990,7 +8879,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>221</v>
@@ -9102,7 +8991,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>225</v>
@@ -9214,7 +9103,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>226</v>
@@ -9328,7 +9217,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>227</v>
@@ -9444,7 +9333,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>228</v>
@@ -9541,7 +9430,7 @@
         <v>99</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>77</v>
@@ -9558,7 +9447,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>233</v>
@@ -9672,7 +9561,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>237</v>
@@ -9786,7 +9675,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>240</v>
@@ -9900,7 +9789,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>243</v>
@@ -10014,7 +9903,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>246</v>
@@ -10128,7 +10017,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>249</v>
@@ -10240,7 +10129,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>253</v>
@@ -10352,7 +10241,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>254</v>
@@ -10466,7 +10355,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>255</v>
@@ -10582,7 +10471,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>256</v>
@@ -10696,7 +10585,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>259</v>
@@ -10810,7 +10699,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>262</v>
@@ -10924,7 +10813,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>266</v>
@@ -11038,7 +10927,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>270</v>
@@ -11152,13 +11041,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>183</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>77</v>
@@ -11266,7 +11155,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>188</v>
@@ -11378,7 +11267,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>189</v>
@@ -11492,7 +11381,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>190</v>
@@ -11608,7 +11497,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>191</v>
@@ -11720,7 +11609,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>194</v>
@@ -11834,14 +11723,14 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>198</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -11860,13 +11749,13 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="M87" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11929,16 +11818,16 @@
         <v>77</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>285</v>
+        <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL87" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AM87" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>77</v>
@@ -11946,7 +11835,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>203</v>
@@ -12058,7 +11947,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>207</v>
@@ -12170,7 +12059,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>208</v>
@@ -12284,7 +12173,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>209</v>
@@ -12400,7 +12289,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>210</v>
@@ -12514,7 +12403,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>216</v>
@@ -12628,7 +12517,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>221</v>
@@ -12740,7 +12629,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>225</v>
@@ -12852,7 +12741,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>226</v>
@@ -12966,7 +12855,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>227</v>
@@ -13082,7 +12971,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>228</v>
@@ -13179,7 +13068,7 @@
         <v>99</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>77</v>
@@ -13196,7 +13085,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>233</v>
@@ -13310,7 +13199,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>237</v>
@@ -13424,7 +13313,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>240</v>
@@ -13538,7 +13427,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>243</v>
@@ -13652,7 +13541,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>246</v>
@@ -13766,7 +13655,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>249</v>
@@ -13878,7 +13767,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>253</v>
@@ -13990,7 +13879,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>254</v>
@@ -14104,7 +13993,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>255</v>
@@ -14220,7 +14109,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>256</v>
@@ -14334,7 +14223,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>259</v>
@@ -14448,7 +14337,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>262</v>
@@ -14562,7 +14451,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>266</v>
@@ -14676,7 +14565,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>270</v>
@@ -14790,13 +14679,13 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>183</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D113" t="s" s="2">
         <v>77</v>
@@ -14904,7 +14793,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>188</v>
@@ -15016,7 +14905,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>189</v>
@@ -15130,7 +15019,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>190</v>
@@ -15246,7 +15135,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>191</v>
@@ -15358,7 +15247,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>194</v>
@@ -15472,7 +15361,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>198</v>
@@ -15498,13 +15387,13 @@
         <v>77</v>
       </c>
       <c r="K119" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L119" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="L119" t="s" s="2">
+      <c r="M119" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -15567,13 +15456,13 @@
         <v>77</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>285</v>
+        <v>77</v>
       </c>
       <c r="AK119" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>77</v>
@@ -15584,7 +15473,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>203</v>
@@ -15696,7 +15585,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>207</v>
@@ -15808,7 +15697,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>208</v>
@@ -15922,7 +15811,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>209</v>
@@ -16038,7 +15927,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>210</v>
@@ -16152,7 +16041,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>216</v>
@@ -16266,7 +16155,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>221</v>
@@ -16378,7 +16267,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>225</v>
@@ -16490,7 +16379,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>226</v>
@@ -16604,7 +16493,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>227</v>
@@ -16720,7 +16609,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>228</v>
@@ -16817,7 +16706,7 @@
         <v>99</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AK130" t="s" s="2">
         <v>77</v>
@@ -16834,7 +16723,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>233</v>
@@ -16948,7 +16837,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>237</v>
@@ -17062,7 +16951,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>240</v>
@@ -17176,7 +17065,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>243</v>
@@ -17290,7 +17179,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>246</v>
@@ -17404,7 +17293,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>249</v>
@@ -17516,7 +17405,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>253</v>
@@ -17628,7 +17517,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>254</v>
@@ -17742,7 +17631,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>255</v>
@@ -17858,7 +17747,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>256</v>
@@ -17972,7 +17861,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B141" t="s" s="2">
         <v>259</v>
@@ -18086,7 +17975,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B142" t="s" s="2">
         <v>262</v>
@@ -18200,7 +18089,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>266</v>
@@ -18314,7 +18203,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>270</v>
@@ -18428,13 +18317,13 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>183</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D145" t="s" s="2">
         <v>77</v>
@@ -18542,7 +18431,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>188</v>
@@ -18654,7 +18543,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>189</v>
@@ -18768,7 +18657,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>190</v>
@@ -18884,7 +18773,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>191</v>
@@ -18996,7 +18885,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>194</v>
@@ -19110,7 +18999,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>198</v>
@@ -19136,13 +19025,13 @@
         <v>77</v>
       </c>
       <c r="K151" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L151" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="L151" t="s" s="2">
+      <c r="M151" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="M151" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" s="2"/>
@@ -19205,13 +19094,13 @@
         <v>77</v>
       </c>
       <c r="AJ151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK151" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AL151" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="AK151" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AL151" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="AM151" t="s" s="2">
         <v>77</v>
@@ -19222,7 +19111,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>203</v>
@@ -19334,7 +19223,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>207</v>
@@ -19446,7 +19335,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>208</v>
@@ -19560,7 +19449,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>209</v>
@@ -19676,7 +19565,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>210</v>
@@ -19790,7 +19679,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B157" t="s" s="2">
         <v>216</v>
@@ -19904,7 +19793,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>221</v>
@@ -20016,7 +19905,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>225</v>
@@ -20128,7 +20017,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>226</v>
@@ -20242,7 +20131,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B161" t="s" s="2">
         <v>227</v>
@@ -20358,7 +20247,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>228</v>
@@ -20455,7 +20344,7 @@
         <v>99</v>
       </c>
       <c r="AJ162" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AK162" t="s" s="2">
         <v>77</v>
@@ -20472,7 +20361,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>233</v>
@@ -20586,7 +20475,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B164" t="s" s="2">
         <v>237</v>
@@ -20700,7 +20589,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>240</v>
@@ -20814,7 +20703,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B166" t="s" s="2">
         <v>243</v>
@@ -20928,7 +20817,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>246</v>
@@ -21042,7 +20931,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>249</v>
@@ -21154,7 +21043,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B169" t="s" s="2">
         <v>253</v>
@@ -21266,7 +21155,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>254</v>
@@ -21380,7 +21269,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>255</v>
@@ -21496,7 +21385,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>256</v>
@@ -21610,7 +21499,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>259</v>
@@ -21724,7 +21613,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B174" t="s" s="2">
         <v>262</v>
@@ -21838,7 +21727,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B175" t="s" s="2">
         <v>266</v>
@@ -21952,7 +21841,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B176" t="s" s="2">
         <v>270</v>
@@ -22066,13 +21955,13 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B177" t="s" s="2">
         <v>183</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D177" t="s" s="2">
         <v>77</v>
@@ -22097,7 +21986,7 @@
         <v>149</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>184</v>
+        <v>427</v>
       </c>
       <c r="M177" t="s" s="2">
         <v>185</v>
@@ -22180,7 +22069,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>188</v>
@@ -22292,7 +22181,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B179" t="s" s="2">
         <v>189</v>
@@ -22406,7 +22295,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B180" t="s" s="2">
         <v>190</v>
@@ -22522,7 +22411,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B181" t="s" s="2">
         <v>191</v>
@@ -22634,7 +22523,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B182" t="s" s="2">
         <v>194</v>
@@ -22748,7 +22637,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>198</v>
@@ -22774,13 +22663,13 @@
         <v>77</v>
       </c>
       <c r="K183" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="L183" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="L183" t="s" s="2">
-        <v>397</v>
-      </c>
       <c r="M183" t="s" s="2">
-        <v>398</v>
+        <v>436</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" s="2"/>
@@ -22843,13 +22732,13 @@
         <v>77</v>
       </c>
       <c r="AJ183" t="s" s="2">
-        <v>399</v>
+        <v>77</v>
       </c>
       <c r="AK183" t="s" s="2">
-        <v>400</v>
+        <v>437</v>
       </c>
       <c r="AL183" t="s" s="2">
-        <v>401</v>
+        <v>438</v>
       </c>
       <c r="AM183" t="s" s="2">
         <v>77</v>
@@ -22860,7 +22749,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B184" t="s" s="2">
         <v>203</v>
@@ -22972,7 +22861,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B185" t="s" s="2">
         <v>207</v>
@@ -23084,7 +22973,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B186" t="s" s="2">
         <v>208</v>
@@ -23198,7 +23087,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B187" t="s" s="2">
         <v>209</v>
@@ -23314,7 +23203,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>210</v>
@@ -23428,7 +23317,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>216</v>
@@ -23542,7 +23431,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B190" t="s" s="2">
         <v>221</v>
@@ -23654,7 +23543,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>225</v>
@@ -23766,7 +23655,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>226</v>
@@ -23880,7 +23769,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>227</v>
@@ -23996,7 +23885,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B194" t="s" s="2">
         <v>228</v>
@@ -24093,7 +23982,7 @@
         <v>99</v>
       </c>
       <c r="AJ194" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AK194" t="s" s="2">
         <v>77</v>
@@ -24110,7 +23999,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B195" t="s" s="2">
         <v>233</v>
@@ -24224,7 +24113,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B196" t="s" s="2">
         <v>237</v>
@@ -24338,7 +24227,7 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B197" t="s" s="2">
         <v>240</v>
@@ -24452,7 +24341,7 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>243</v>
@@ -24566,7 +24455,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B199" t="s" s="2">
         <v>246</v>
@@ -24680,7 +24569,7 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B200" t="s" s="2">
         <v>249</v>
@@ -24792,7 +24681,7 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B201" t="s" s="2">
         <v>253</v>
@@ -24904,7 +24793,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B202" t="s" s="2">
         <v>254</v>
@@ -25018,7 +24907,7 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>255</v>
@@ -25134,7 +25023,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B204" t="s" s="2">
         <v>256</v>
@@ -25248,7 +25137,7 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B205" t="s" s="2">
         <v>259</v>
@@ -25362,7 +25251,7 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B206" t="s" s="2">
         <v>262</v>
@@ -25476,7 +25365,7 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B207" t="s" s="2">
         <v>266</v>
@@ -25590,7 +25479,7 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>270</v>
@@ -25704,13 +25593,13 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B209" t="s" s="2">
         <v>183</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="D209" t="s" s="2">
         <v>77</v>
@@ -25735,7 +25624,7 @@
         <v>149</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="M209" t="s" s="2">
         <v>185</v>
@@ -25818,7 +25707,7 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B210" t="s" s="2">
         <v>188</v>
@@ -25930,7 +25819,7 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B211" t="s" s="2">
         <v>189</v>
@@ -26044,7 +25933,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B212" t="s" s="2">
         <v>190</v>
@@ -26160,7 +26049,7 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>191</v>
@@ -26272,7 +26161,7 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B214" t="s" s="2">
         <v>194</v>
@@ -26386,7 +26275,7 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B215" t="s" s="2">
         <v>198</v>
@@ -26412,13 +26301,13 @@
         <v>77</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="N215" s="2"/>
       <c r="O215" s="2"/>
@@ -26481,13 +26370,13 @@
         <v>77</v>
       </c>
       <c r="AJ215" t="s" s="2">
-        <v>285</v>
+        <v>77</v>
       </c>
       <c r="AK215" t="s" s="2">
-        <v>473</v>
+        <v>437</v>
       </c>
       <c r="AL215" t="s" s="2">
-        <v>474</v>
+        <v>438</v>
       </c>
       <c r="AM215" t="s" s="2">
         <v>77</v>
@@ -26498,7 +26387,7 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B216" t="s" s="2">
         <v>203</v>
@@ -26610,7 +26499,7 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B217" t="s" s="2">
         <v>207</v>
@@ -26722,7 +26611,7 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>208</v>
@@ -26836,7 +26725,7 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B219" t="s" s="2">
         <v>209</v>
@@ -26952,7 +26841,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B220" t="s" s="2">
         <v>210</v>
@@ -27066,7 +26955,7 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B221" t="s" s="2">
         <v>216</v>
@@ -27180,7 +27069,7 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B222" t="s" s="2">
         <v>221</v>
@@ -27292,7 +27181,7 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>225</v>
@@ -27404,7 +27293,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B224" t="s" s="2">
         <v>226</v>
@@ -27518,7 +27407,7 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B225" t="s" s="2">
         <v>227</v>
@@ -27634,7 +27523,7 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B226" t="s" s="2">
         <v>228</v>
@@ -27731,7 +27620,7 @@
         <v>99</v>
       </c>
       <c r="AJ226" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AK226" t="s" s="2">
         <v>77</v>
@@ -27748,7 +27637,7 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B227" t="s" s="2">
         <v>233</v>
@@ -27862,7 +27751,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B228" t="s" s="2">
         <v>237</v>
@@ -27976,7 +27865,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B229" t="s" s="2">
         <v>240</v>
@@ -28090,7 +27979,7 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B230" t="s" s="2">
         <v>243</v>
@@ -28204,7 +28093,7 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B231" t="s" s="2">
         <v>246</v>
@@ -28318,7 +28207,7 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B232" t="s" s="2">
         <v>249</v>
@@ -28430,7 +28319,7 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B233" t="s" s="2">
         <v>253</v>
@@ -28542,7 +28431,7 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B234" t="s" s="2">
         <v>254</v>
@@ -28656,7 +28545,7 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B235" t="s" s="2">
         <v>255</v>
@@ -28772,7 +28661,7 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B236" t="s" s="2">
         <v>256</v>
@@ -28886,7 +28775,7 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B237" t="s" s="2">
         <v>259</v>
@@ -29000,7 +28889,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B238" t="s" s="2">
         <v>262</v>
@@ -29114,7 +29003,7 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B239" t="s" s="2">
         <v>266</v>
@@ -29228,7 +29117,7 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B240" t="s" s="2">
         <v>270</v>
@@ -29342,14 +29231,12 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="C241" t="s" s="2">
         <v>501</v>
       </c>
+      <c r="C241" s="2"/>
       <c r="D241" t="s" s="2">
         <v>77</v>
       </c>
@@ -29358,7 +29245,7 @@
         <v>78</v>
       </c>
       <c r="G241" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H241" t="s" s="2">
         <v>77</v>
@@ -29370,16 +29257,20 @@
         <v>88</v>
       </c>
       <c r="K241" t="s" s="2">
-        <v>149</v>
+        <v>502</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M241" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N241" s="2"/>
-      <c r="O241" s="2"/>
+        <v>504</v>
+      </c>
+      <c r="N241" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="O241" t="s" s="2">
+        <v>506</v>
+      </c>
       <c r="P241" t="s" s="2">
         <v>77</v>
       </c>
@@ -29427,3670 +29318,30 @@
         <v>77</v>
       </c>
       <c r="AF241" t="s" s="2">
-        <v>183</v>
+        <v>501</v>
       </c>
       <c r="AG241" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH241" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI241" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ241" t="s" s="2">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="AK241" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL241" t="s" s="2">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="AM241" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN241" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="B242" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="C242" s="2"/>
-      <c r="D242" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E242" s="2"/>
-      <c r="F242" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G242" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H242" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I242" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J242" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K242" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L242" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M242" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N242" s="2"/>
-      <c r="O242" s="2"/>
-      <c r="P242" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q242" s="2"/>
-      <c r="R242" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S242" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T242" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U242" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V242" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W242" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X242" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y242" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z242" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA242" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB242" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC242" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD242" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE242" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF242" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AG242" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH242" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI242" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ242" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK242" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL242" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AM242" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN242" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="B243" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="C243" s="2"/>
-      <c r="D243" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="E243" s="2"/>
-      <c r="F243" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G243" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H243" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I243" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J243" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K243" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="L243" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M243" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N243" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="O243" s="2"/>
-      <c r="P243" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q243" s="2"/>
-      <c r="R243" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S243" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T243" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U243" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V243" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W243" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X243" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y243" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z243" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA243" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB243" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AC243" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AD243" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE243" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AF243" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AG243" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH243" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI243" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ243" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AK243" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL243" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM243" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN243" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="B244" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="C244" s="2"/>
-      <c r="D244" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="E244" s="2"/>
-      <c r="F244" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G244" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H244" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I244" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J244" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K244" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="L244" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M244" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N244" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="O244" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="P244" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q244" s="2"/>
-      <c r="R244" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S244" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T244" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U244" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V244" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W244" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X244" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y244" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z244" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA244" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB244" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC244" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD244" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE244" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF244" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AG244" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH244" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI244" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ244" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AK244" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL244" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM244" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN244" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="B245" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="C245" s="2"/>
-      <c r="D245" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E245" s="2"/>
-      <c r="F245" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G245" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H245" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I245" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J245" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K245" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="L245" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M245" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N245" s="2"/>
-      <c r="O245" s="2"/>
-      <c r="P245" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q245" s="2"/>
-      <c r="R245" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S245" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T245" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U245" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V245" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W245" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X245" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y245" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z245" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA245" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB245" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC245" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD245" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE245" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF245" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AG245" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH245" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI245" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ245" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK245" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL245" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM245" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN245" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="B246" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="C246" s="2"/>
-      <c r="D246" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E246" s="2"/>
-      <c r="F246" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G246" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H246" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I246" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J246" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K246" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L246" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M246" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N246" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="O246" s="2"/>
-      <c r="P246" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q246" s="2"/>
-      <c r="R246" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S246" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T246" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U246" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V246" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W246" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X246" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y246" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z246" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA246" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB246" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC246" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD246" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE246" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF246" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AG246" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH246" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI246" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ246" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK246" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL246" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AM246" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN246" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="B247" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="C247" s="2"/>
-      <c r="D247" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E247" s="2"/>
-      <c r="F247" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G247" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H247" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I247" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J247" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K247" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="L247" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="M247" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="N247" s="2"/>
-      <c r="O247" s="2"/>
-      <c r="P247" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q247" s="2"/>
-      <c r="R247" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S247" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T247" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U247" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V247" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W247" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X247" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y247" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z247" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA247" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB247" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC247" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD247" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE247" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF247" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AG247" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH247" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI247" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ247" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AK247" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AL247" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AM247" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN247" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="B248" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="C248" s="2"/>
-      <c r="D248" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E248" s="2"/>
-      <c r="F248" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G248" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H248" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I248" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J248" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K248" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="L248" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M248" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N248" s="2"/>
-      <c r="O248" s="2"/>
-      <c r="P248" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q248" s="2"/>
-      <c r="R248" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S248" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T248" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U248" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V248" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W248" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X248" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y248" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z248" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA248" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB248" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC248" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD248" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE248" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF248" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AG248" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH248" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI248" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AJ248" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK248" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL248" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AM248" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN248" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B249" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="C249" s="2"/>
-      <c r="D249" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E249" s="2"/>
-      <c r="F249" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G249" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H249" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I249" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J249" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K249" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L249" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M249" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N249" s="2"/>
-      <c r="O249" s="2"/>
-      <c r="P249" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q249" s="2"/>
-      <c r="R249" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S249" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T249" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U249" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V249" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W249" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X249" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y249" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z249" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA249" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB249" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC249" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD249" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE249" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF249" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AG249" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH249" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI249" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ249" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK249" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL249" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AM249" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN249" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="B250" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="C250" s="2"/>
-      <c r="D250" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="E250" s="2"/>
-      <c r="F250" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G250" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H250" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I250" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J250" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K250" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="L250" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M250" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N250" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="O250" s="2"/>
-      <c r="P250" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q250" s="2"/>
-      <c r="R250" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S250" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T250" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U250" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V250" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W250" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X250" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y250" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z250" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA250" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB250" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AC250" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AD250" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE250" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AF250" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AG250" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH250" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI250" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ250" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AK250" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL250" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM250" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN250" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="B251" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="C251" s="2"/>
-      <c r="D251" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="E251" s="2"/>
-      <c r="F251" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G251" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H251" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I251" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J251" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K251" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="L251" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M251" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N251" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="O251" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="P251" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q251" s="2"/>
-      <c r="R251" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S251" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T251" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U251" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V251" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W251" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X251" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y251" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z251" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA251" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB251" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC251" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD251" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE251" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF251" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AG251" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH251" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI251" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ251" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AK251" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL251" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM251" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN251" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="B252" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="C252" s="2"/>
-      <c r="D252" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E252" s="2"/>
-      <c r="F252" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G252" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H252" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I252" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J252" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K252" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="L252" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M252" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N252" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="O252" s="2"/>
-      <c r="P252" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q252" s="2"/>
-      <c r="R252" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S252" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T252" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U252" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V252" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W252" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X252" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="Y252" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="Z252" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="AA252" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB252" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC252" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD252" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE252" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF252" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="AG252" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH252" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI252" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ252" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK252" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL252" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AM252" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN252" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="B253" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="C253" s="2"/>
-      <c r="D253" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E253" s="2"/>
-      <c r="F253" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G253" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H253" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I253" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J253" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K253" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="L253" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M253" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N253" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="O253" s="2"/>
-      <c r="P253" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q253" s="2"/>
-      <c r="R253" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S253" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T253" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U253" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V253" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W253" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X253" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y253" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z253" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA253" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB253" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC253" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD253" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE253" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF253" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AG253" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH253" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI253" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ253" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK253" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL253" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AM253" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN253" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="B254" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="C254" s="2"/>
-      <c r="D254" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E254" s="2"/>
-      <c r="F254" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G254" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H254" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I254" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J254" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K254" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="L254" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M254" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N254" s="2"/>
-      <c r="O254" s="2"/>
-      <c r="P254" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q254" s="2"/>
-      <c r="R254" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S254" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T254" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U254" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V254" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W254" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X254" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y254" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z254" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA254" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB254" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC254" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD254" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE254" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF254" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AG254" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH254" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI254" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AJ254" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK254" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL254" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AM254" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN254" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="B255" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="C255" s="2"/>
-      <c r="D255" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E255" s="2"/>
-      <c r="F255" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G255" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H255" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I255" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J255" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K255" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L255" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M255" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N255" s="2"/>
-      <c r="O255" s="2"/>
-      <c r="P255" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q255" s="2"/>
-      <c r="R255" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S255" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T255" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U255" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V255" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W255" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X255" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y255" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z255" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA255" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB255" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC255" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD255" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE255" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF255" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AG255" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH255" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI255" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ255" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK255" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL255" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AM255" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN255" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="B256" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="C256" s="2"/>
-      <c r="D256" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="E256" s="2"/>
-      <c r="F256" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G256" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H256" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I256" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J256" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K256" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="L256" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M256" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N256" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="O256" s="2"/>
-      <c r="P256" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q256" s="2"/>
-      <c r="R256" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S256" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T256" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U256" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V256" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W256" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X256" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y256" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z256" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA256" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB256" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AC256" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AD256" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE256" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AF256" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AG256" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH256" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI256" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ256" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AK256" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL256" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM256" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN256" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="B257" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="C257" s="2"/>
-      <c r="D257" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="E257" s="2"/>
-      <c r="F257" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G257" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H257" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I257" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J257" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K257" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="L257" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M257" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N257" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="O257" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="P257" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q257" s="2"/>
-      <c r="R257" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S257" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T257" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U257" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V257" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W257" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X257" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y257" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z257" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA257" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB257" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC257" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD257" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE257" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF257" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AG257" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH257" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI257" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ257" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AK257" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL257" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM257" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN257" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="B258" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="C258" s="2"/>
-      <c r="D258" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E258" s="2"/>
-      <c r="F258" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G258" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H258" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I258" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J258" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K258" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="L258" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M258" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N258" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="O258" s="2"/>
-      <c r="P258" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q258" s="2"/>
-      <c r="R258" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S258" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T258" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U258" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V258" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W258" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X258" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="Y258" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="Z258" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="AA258" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB258" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC258" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD258" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE258" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF258" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AG258" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH258" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI258" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ258" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="AK258" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL258" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AM258" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN258" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="B259" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="C259" s="2"/>
-      <c r="D259" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E259" s="2"/>
-      <c r="F259" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G259" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H259" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I259" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J259" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K259" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L259" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M259" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N259" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="O259" s="2"/>
-      <c r="P259" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q259" s="2"/>
-      <c r="R259" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S259" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T259" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U259" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V259" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W259" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X259" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y259" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z259" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA259" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB259" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC259" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD259" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE259" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF259" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AG259" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH259" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI259" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ259" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK259" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL259" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AM259" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN259" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="B260" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="C260" s="2"/>
-      <c r="D260" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E260" s="2"/>
-      <c r="F260" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G260" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H260" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I260" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J260" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K260" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L260" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M260" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N260" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="O260" s="2"/>
-      <c r="P260" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q260" s="2"/>
-      <c r="R260" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S260" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T260" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U260" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V260" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W260" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X260" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y260" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z260" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA260" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB260" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC260" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD260" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE260" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF260" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="AG260" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH260" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI260" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ260" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK260" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL260" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AM260" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN260" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="B261" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="C261" s="2"/>
-      <c r="D261" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E261" s="2"/>
-      <c r="F261" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G261" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H261" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I261" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J261" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K261" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="L261" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M261" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N261" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O261" s="2"/>
-      <c r="P261" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q261" s="2"/>
-      <c r="R261" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S261" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T261" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U261" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V261" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W261" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X261" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y261" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z261" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA261" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB261" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC261" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD261" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE261" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF261" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="AG261" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH261" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI261" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ261" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK261" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL261" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AM261" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN261" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="B262" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="C262" s="2"/>
-      <c r="D262" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E262" s="2"/>
-      <c r="F262" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G262" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H262" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I262" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J262" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K262" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L262" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M262" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N262" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="O262" s="2"/>
-      <c r="P262" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q262" s="2"/>
-      <c r="R262" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S262" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T262" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U262" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V262" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W262" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X262" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y262" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z262" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA262" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB262" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC262" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD262" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE262" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF262" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="AG262" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH262" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI262" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ262" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK262" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL262" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AM262" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN262" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="B263" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="C263" s="2"/>
-      <c r="D263" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E263" s="2"/>
-      <c r="F263" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G263" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H263" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I263" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J263" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K263" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L263" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M263" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N263" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="O263" s="2"/>
-      <c r="P263" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q263" s="2"/>
-      <c r="R263" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S263" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T263" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U263" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V263" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W263" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X263" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y263" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z263" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA263" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB263" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC263" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD263" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE263" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF263" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="AG263" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH263" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI263" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ263" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK263" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL263" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AM263" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN263" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="B264" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="C264" s="2"/>
-      <c r="D264" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E264" s="2"/>
-      <c r="F264" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G264" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H264" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I264" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J264" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K264" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="L264" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M264" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N264" s="2"/>
-      <c r="O264" s="2"/>
-      <c r="P264" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q264" s="2"/>
-      <c r="R264" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S264" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T264" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U264" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V264" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W264" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X264" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y264" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z264" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA264" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB264" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC264" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD264" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE264" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF264" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AG264" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH264" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI264" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="AJ264" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK264" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL264" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AM264" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN264" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="B265" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="C265" s="2"/>
-      <c r="D265" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E265" s="2"/>
-      <c r="F265" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G265" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H265" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I265" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J265" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K265" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L265" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M265" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N265" s="2"/>
-      <c r="O265" s="2"/>
-      <c r="P265" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q265" s="2"/>
-      <c r="R265" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S265" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T265" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U265" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V265" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W265" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X265" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y265" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z265" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA265" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB265" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC265" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD265" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE265" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF265" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AG265" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH265" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI265" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ265" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK265" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL265" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AM265" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN265" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="B266" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="C266" s="2"/>
-      <c r="D266" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="E266" s="2"/>
-      <c r="F266" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G266" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H266" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I266" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J266" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K266" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="L266" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M266" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N266" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="O266" s="2"/>
-      <c r="P266" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q266" s="2"/>
-      <c r="R266" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S266" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T266" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U266" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V266" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W266" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X266" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y266" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z266" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA266" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB266" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AC266" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AD266" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE266" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AF266" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AG266" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH266" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI266" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ266" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AK266" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL266" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM266" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN266" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="B267" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="C267" s="2"/>
-      <c r="D267" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="E267" s="2"/>
-      <c r="F267" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G267" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H267" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I267" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J267" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K267" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="L267" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M267" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N267" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="O267" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="P267" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q267" s="2"/>
-      <c r="R267" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S267" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T267" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U267" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V267" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W267" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X267" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y267" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z267" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA267" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB267" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC267" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD267" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE267" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF267" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AG267" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH267" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI267" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ267" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AK267" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL267" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM267" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN267" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="B268" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="C268" s="2"/>
-      <c r="D268" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E268" s="2"/>
-      <c r="F268" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G268" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H268" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I268" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J268" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K268" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L268" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M268" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N268" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="O268" s="2"/>
-      <c r="P268" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q268" s="2"/>
-      <c r="R268" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S268" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T268" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U268" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V268" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W268" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X268" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y268" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z268" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA268" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB268" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC268" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD268" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE268" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF268" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="AG268" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH268" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI268" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ268" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK268" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL268" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AM268" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN268" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="B269" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="C269" s="2"/>
-      <c r="D269" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E269" s="2"/>
-      <c r="F269" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G269" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H269" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I269" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J269" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K269" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L269" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="M269" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N269" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O269" s="2"/>
-      <c r="P269" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q269" s="2"/>
-      <c r="R269" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S269" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T269" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U269" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V269" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W269" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X269" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y269" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z269" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA269" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB269" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC269" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD269" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE269" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF269" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="AG269" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH269" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI269" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ269" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK269" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL269" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AM269" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN269" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="B270" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="C270" s="2"/>
-      <c r="D270" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E270" s="2"/>
-      <c r="F270" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G270" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H270" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I270" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J270" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K270" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L270" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="M270" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N270" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="O270" s="2"/>
-      <c r="P270" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q270" s="2"/>
-      <c r="R270" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S270" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T270" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U270" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V270" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W270" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X270" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y270" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z270" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA270" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB270" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC270" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD270" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE270" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF270" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AG270" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH270" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI270" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ270" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK270" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL270" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AM270" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN270" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="B271" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="C271" s="2"/>
-      <c r="D271" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E271" s="2"/>
-      <c r="F271" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G271" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H271" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I271" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J271" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K271" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="L271" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M271" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N271" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="O271" s="2"/>
-      <c r="P271" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q271" s="2"/>
-      <c r="R271" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S271" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T271" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U271" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V271" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W271" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X271" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y271" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z271" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA271" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB271" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC271" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD271" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE271" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF271" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="AG271" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH271" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI271" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ271" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK271" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL271" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AM271" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN271" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="B272" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="C272" s="2"/>
-      <c r="D272" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E272" s="2"/>
-      <c r="F272" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G272" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H272" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I272" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J272" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K272" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="L272" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M272" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N272" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="O272" s="2"/>
-      <c r="P272" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q272" s="2"/>
-      <c r="R272" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S272" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T272" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U272" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V272" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W272" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X272" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y272" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z272" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA272" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB272" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC272" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD272" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE272" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF272" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AG272" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH272" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI272" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ272" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK272" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL272" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AM272" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN272" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="B273" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="C273" s="2"/>
-      <c r="D273" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E273" s="2"/>
-      <c r="F273" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G273" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H273" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I273" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J273" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K273" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="L273" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="M273" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="N273" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="O273" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="P273" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q273" s="2"/>
-      <c r="R273" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S273" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T273" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U273" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V273" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W273" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X273" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y273" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z273" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA273" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB273" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC273" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD273" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE273" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF273" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="AG273" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH273" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI273" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ273" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK273" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL273" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM273" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN273" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/ig/ft-3-add-narative/StructureDefinition-cds-bundle-transaction-maj.xlsx
+++ b/ig/ft-3-add-narative/StructureDefinition-cds-bundle-transaction-maj.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T15:36:21+00:00</t>
+    <t>2024-03-19T10:06:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ft-3-add-narative/StructureDefinition-cds-bundle-transaction-maj.xlsx
+++ b/ig/ft-3-add-narative/StructureDefinition-cds-bundle-transaction-maj.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T10:06:41+00:00</t>
+    <t>2024-03-19T10:26:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ft-3-add-narative/StructureDefinition-cds-bundle-transaction-maj.xlsx
+++ b/ig/ft-3-add-narative/StructureDefinition-cds-bundle-transaction-maj.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T10:26:28+00:00</t>
+    <t>2024-03-19T10:27:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ft-3-add-narative/StructureDefinition-cds-bundle-transaction-maj.xlsx
+++ b/ig/ft-3-add-narative/StructureDefinition-cds-bundle-transaction-maj.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T10:27:16+00:00</t>
+    <t>2024-03-19T10:46:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ft-3-add-narative/StructureDefinition-cds-bundle-transaction-maj.xlsx
+++ b/ig/ft-3-add-narative/StructureDefinition-cds-bundle-transaction-maj.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T10:46:18+00:00</t>
+    <t>2024-03-19T10:50:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ft-3-add-narative/StructureDefinition-cds-bundle-transaction-maj.xlsx
+++ b/ig/ft-3-add-narative/StructureDefinition-cds-bundle-transaction-maj.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T10:50:40+00:00</t>
+    <t>2024-03-19T13:55:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ft-3-add-narative/StructureDefinition-cds-bundle-transaction-maj.xlsx
+++ b/ig/ft-3-add-narative/StructureDefinition-cds-bundle-transaction-maj.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T13:55:26+00:00</t>
+    <t>2024-03-19T13:56:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ft-3-add-narative/StructureDefinition-cds-bundle-transaction-maj.xlsx
+++ b/ig/ft-3-add-narative/StructureDefinition-cds-bundle-transaction-maj.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T13:56:49+00:00</t>
+    <t>2024-03-19T16:30:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ft-3-add-narative/StructureDefinition-cds-bundle-transaction-maj.xlsx
+++ b/ig/ft-3-add-narative/StructureDefinition-cds-bundle-transaction-maj.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T16:30:14+00:00</t>
+    <t>2024-03-19T16:35:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ft-3-add-narative/StructureDefinition-cds-bundle-transaction-maj.xlsx
+++ b/ig/ft-3-add-narative/StructureDefinition-cds-bundle-transaction-maj.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T16:35:07+00:00</t>
+    <t>2024-03-19T16:37:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ft-3-add-narative/StructureDefinition-cds-bundle-transaction-maj.xlsx
+++ b/ig/ft-3-add-narative/StructureDefinition-cds-bundle-transaction-maj.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T16:37:00+00:00</t>
+    <t>2024-03-20T08:38:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ft-3-add-narative/StructureDefinition-cds-bundle-transaction-maj.xlsx
+++ b/ig/ft-3-add-narative/StructureDefinition-cds-bundle-transaction-maj.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-20T08:38:12+00:00</t>
+    <t>2024-04-02T16:00:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ft-3-add-narative/StructureDefinition-cds-bundle-transaction-maj.xlsx
+++ b/ig/ft-3-add-narative/StructureDefinition-cds-bundle-transaction-maj.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-02T16:00:04+00:00</t>
+    <t>2024-04-03T12:05:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ft-3-add-narative/StructureDefinition-cds-bundle-transaction-maj.xlsx
+++ b/ig/ft-3-add-narative/StructureDefinition-cds-bundle-transaction-maj.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-03T12:05:40+00:00</t>
+    <t>2024-04-16T11:50:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -1247,7 +1247,7 @@
     <t>Bundle.entry:organization.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Organization {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-organization}
+    <t xml:space="preserve">Organization {http://interop.esante.gouv.fr/ig/fhir/cds/StructureDefinition/cds-organization}
 </t>
   </si>
   <si>
